--- a/Test scenario & Test case/TestScenario_OpenMRS.xlsx
+++ b/Test scenario & Test case/TestScenario_OpenMRS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GitHub\OpenMRSTesting-SWT301\Test scenario &amp; Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C308C1E-7D4C-44CD-8AE8-95CE6735AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A37D9-92FD-4F8A-B22A-9F7F054213A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Test  Scenario  Template</t>
   </si>
@@ -64,6 +64,63 @@
   </si>
   <si>
     <t>Verify Login Functionality</t>
+  </si>
+  <si>
+    <t>Capture Vital Module</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>Logout Module</t>
+  </si>
+  <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>TS006</t>
+  </si>
+  <si>
+    <t>TS007</t>
+  </si>
+  <si>
+    <t>Patient Module</t>
+  </si>
+  <si>
+    <t>Appointment Module</t>
+  </si>
+  <si>
+    <t>Verify Logout Functionality</t>
+  </si>
+  <si>
+    <t>Verify Register Patient Functionality</t>
+  </si>
+  <si>
+    <t>Verify Find Patient Record Functionality</t>
+  </si>
+  <si>
+    <t>Verify View Patient Functionality</t>
+  </si>
+  <si>
+    <t>Verify Search Patient Functionality</t>
+  </si>
+  <si>
+    <t>Verify Book Appointment Functionality</t>
+  </si>
+  <si>
+    <t>Verify Capture Vitals Functionality</t>
+  </si>
+  <si>
+    <t>Module is defunct (see image in /images) =&gt; Cannot write test cases</t>
   </si>
 </sst>
 </file>
@@ -131,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -675,37 +732,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -717,26 +793,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -749,142 +813,173 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,55 +1195,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="46.875" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:26" ht="42" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1"/>
@@ -1172,28 +1267,28 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1214,14 +1309,14 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="24"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1242,14 +1337,14 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="59"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1270,14 +1365,14 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="59"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="24"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1298,14 +1393,14 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="59"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="24"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1326,14 +1421,14 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="59"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="24"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1354,14 +1449,14 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1382,1266 +1477,1351 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="A10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1">
       <c r="A13" s="53"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="A14" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="44"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="44"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="33"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="50"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="50"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="41"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" ht="45.75" thickBot="1">
+      <c r="A34" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+    </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="57" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:26" ht="15.75" customHeight="1"/>
@@ -3586,8 +3766,9 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="29">
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A10:A13"/>
@@ -3605,6 +3786,18 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Test scenario & Test case/TestScenario_OpenMRS.xlsx
+++ b/Test scenario & Test case/TestScenario_OpenMRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GitHub\OpenMRSTesting-SWT301\Test scenario &amp; Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A37D9-92FD-4F8A-B22A-9F7F054213A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8504FC-36DB-4375-B8EB-09EB7EE7B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Test  Scenario  Template</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Login Module</t>
-  </si>
-  <si>
-    <t>TC001</t>
   </si>
   <si>
     <t>TS001</t>
@@ -122,12 +119,33 @@
   <si>
     <t>Module is defunct (see image in /images) =&gt; Cannot write test cases</t>
   </si>
+  <si>
+    <t>LI_001</t>
+  </si>
+  <si>
+    <t>LO_001</t>
+  </si>
+  <si>
+    <t>RP_001</t>
+  </si>
+  <si>
+    <t>FPR_001</t>
+  </si>
+  <si>
+    <t>VP_001</t>
+  </si>
+  <si>
+    <t>SP_001</t>
+  </si>
+  <si>
+    <t>BA_001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +185,13 @@
       <sz val="10"/>
       <name val="Droid Sans"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +210,12 @@
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -894,91 +923,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1214,15 +1243,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:26" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1267,26 +1296,26 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1"/>
@@ -1309,10 +1338,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="10"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1337,10 +1366,10 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="57"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="10"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -1365,10 +1394,10 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="10"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -1393,10 +1422,10 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="10"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1421,10 +1450,10 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="10"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -1449,10 +1478,10 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="11"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
@@ -1477,19 +1506,21 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="C10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="2"/>
@@ -1513,10 +1544,10 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="50"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
@@ -1541,10 +1572,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="50"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="48"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="14"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26"/>
@@ -1569,10 +1600,10 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="15"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
@@ -1597,19 +1628,21 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="A14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="29"/>
       <c r="H14" s="2"/>
@@ -1633,10 +1666,10 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="50"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="14"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -1661,10 +1694,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="50"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="13"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -1689,10 +1722,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="16"/>
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
@@ -1717,19 +1750,21 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9"/>
+      <c r="A18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="31"/>
       <c r="H18" s="2"/>
@@ -1753,10 +1788,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="10"/>
       <c r="F19" s="19"/>
       <c r="G19" s="32"/>
@@ -1781,10 +1816,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="10"/>
       <c r="F20" s="19"/>
       <c r="G20" s="32"/>
@@ -1809,10 +1844,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
       <c r="G21" s="33"/>
@@ -1837,19 +1872,21 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="A22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="F22" s="17"/>
       <c r="G22" s="31"/>
       <c r="H22" s="2"/>
@@ -1873,10 +1910,10 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="50"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="10"/>
       <c r="F23" s="19"/>
       <c r="G23" s="32"/>
@@ -1901,10 +1938,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="50"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="10"/>
       <c r="F24" s="19"/>
       <c r="G24" s="32"/>
@@ -1929,10 +1966,10 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="11"/>
       <c r="F25" s="21"/>
       <c r="G25" s="33"/>
@@ -1957,19 +1994,21 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9"/>
+      <c r="A26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="31"/>
       <c r="H26" s="2"/>
@@ -1993,10 +2032,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="10"/>
       <c r="F27" s="19"/>
       <c r="G27" s="32"/>
@@ -2021,10 +2060,10 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="10"/>
       <c r="F28" s="19"/>
       <c r="G28" s="32"/>
@@ -2049,10 +2088,10 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="11"/>
       <c r="F29" s="21"/>
       <c r="G29" s="33"/>
@@ -2077,19 +2116,21 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9"/>
+      <c r="A30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="31"/>
       <c r="H30" s="2"/>
@@ -2113,10 +2154,10 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="10"/>
       <c r="F31" s="19"/>
       <c r="G31" s="32"/>
@@ -2141,10 +2182,10 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="10"/>
       <c r="F32" s="19"/>
       <c r="G32" s="32"/>
@@ -2169,10 +2210,10 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="11"/>
       <c r="F33" s="21"/>
       <c r="G33" s="33"/>
@@ -2197,22 +2238,22 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="45.75" thickBot="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="60">
+        <v>0</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63" t="s">
         <v>30</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39" t="s">
-        <v>31</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3769,23 +3810,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
@@ -3798,6 +3822,23 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Test scenario & Test case/TestScenario_OpenMRS.xlsx
+++ b/Test scenario & Test case/TestScenario_OpenMRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GitHub\OpenMRSTesting-SWT301\Test scenario &amp; Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWT301\Nhom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8504FC-36DB-4375-B8EB-09EB7EE7B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5003EE-5A1C-4BF8-92B9-385F159F3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Test  Scenario  Template</t>
   </si>
@@ -139,13 +139,73 @@
   </si>
   <si>
     <t>BA_001</t>
+  </si>
+  <si>
+    <t>FPR_002</t>
+  </si>
+  <si>
+    <t>FPR_003</t>
+  </si>
+  <si>
+    <t>FPR_004</t>
+  </si>
+  <si>
+    <t>FPR_005</t>
+  </si>
+  <si>
+    <t>FPR_006</t>
+  </si>
+  <si>
+    <t>FPR_007</t>
+  </si>
+  <si>
+    <t>FPR_008</t>
+  </si>
+  <si>
+    <t>FPR_009</t>
+  </si>
+  <si>
+    <t>FPR_010</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a valid ID search term.</t>
+  </si>
+  <si>
+    <t>Verify that no results are displayed when the user enters the search term ID does not exist.</t>
+  </si>
+  <si>
+    <t>Verify that the search function shows all listings when the search query is empty</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering an ID search term with leading and trailing spaces</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a valid name search term.</t>
+  </si>
+  <si>
+    <t>Verify that no results are displayed when the user enters a search term for a name that does not exist.</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a name search term with leading and trailing spaces.</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a lowercase name search term</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a uppercase name search term</t>
+  </si>
+  <si>
+    <t>Verify that results are displayed correctly when entering a name search term that has both lowercase and uppercase letters</t>
+  </si>
+  <si>
+    <t>Verify the user can see detailed information about the patient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +250,27 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +295,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -818,11 +903,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -923,41 +1130,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,45 +1219,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{81CDF5A3-4E36-446F-BC4B-93275C2C7E8B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,34 +1483,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="46.875" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="46.8984375" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="26" width="7.625" customWidth="1"/>
+    <col min="8" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:26" ht="21.6" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:26" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1295,8 +1554,8 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:26" ht="14.4">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -1305,7 +1564,7 @@
       <c r="C3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1337,11 +1596,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50"/>
+    <row r="4" spans="1:26" ht="14.4">
+      <c r="A4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="10"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1365,11 +1624,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="50"/>
+    <row r="5" spans="1:26" ht="14.4">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -1393,11 +1652,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="50"/>
+    <row r="6" spans="1:26" ht="14.4">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="10"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -1421,11 +1680,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
+    <row r="7" spans="1:26" ht="14.4">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="10"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1449,11 +1708,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="50"/>
+    <row r="8" spans="1:26" ht="14.4">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="10"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -1477,11 +1736,11 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
+    <row r="9" spans="1:26" thickBot="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="11"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
@@ -1505,17 +1764,17 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:26" ht="14.4">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1543,11 +1802,11 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="38"/>
+    <row r="11" spans="1:26" ht="14.4">
+      <c r="A11" s="51"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="13"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
@@ -1571,11 +1830,11 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="38"/>
+    <row r="12" spans="1:26" ht="14.4">
+      <c r="A12" s="51"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="14"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26"/>
@@ -1599,11 +1858,11 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
+    <row r="13" spans="1:26" thickBot="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="15"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
@@ -1627,17 +1886,17 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:26" ht="14.4">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -1665,11 +1924,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="38"/>
+    <row r="15" spans="1:26" ht="14.4">
+      <c r="A15" s="51"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="14"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -1693,11 +1952,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="38"/>
+    <row r="16" spans="1:26" ht="14.4">
+      <c r="A16" s="51"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="13"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -1721,13 +1980,13 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+    <row r="17" spans="1:26" thickBot="1">
       <c r="A17" s="52"/>
-      <c r="B17" s="35"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="53"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="30"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1749,23 +2008,25 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="49">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="70" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1787,13 +2048,17 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="54"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="19"/>
+    <row r="19" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1815,13 +2080,17 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="54"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="19"/>
+    <row r="20" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>49</v>
+      </c>
       <c r="G20" s="32"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1843,14 +2112,18 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
+    <row r="21" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1871,24 +2144,18 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="67"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1909,14 +2176,18 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="36"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="32"/>
+    <row r="23" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="67"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1937,14 +2208,18 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="36"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="32"/>
+    <row r="24" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="67"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1965,14 +2240,18 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="33"/>
+    <row r="25" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="67"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1993,24 +2272,18 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>10</v>
-      </c>
+    <row r="26" spans="1:26" ht="29.4" thickBot="1">
+      <c r="A26" s="65"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="67"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2031,14 +2304,18 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="54"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="32"/>
+    <row r="27" spans="1:26" ht="43.8" thickBot="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="33"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2059,14 +2336,26 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="54"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="32"/>
+    <row r="28" spans="1:26" thickBot="1">
+      <c r="A28" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="79">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="31"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2087,14 +2376,24 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="33"/>
+    <row r="29" spans="1:26" ht="14.4">
+      <c r="A29" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2115,24 +2414,14 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="31"/>
+    <row r="30" spans="1:26" ht="14.4">
+      <c r="A30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2153,11 +2442,11 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="54"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="38"/>
+    <row r="31" spans="1:26" ht="14.4">
+      <c r="A31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="10"/>
       <c r="F31" s="19"/>
       <c r="G31" s="32"/>
@@ -2181,14 +2470,14 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="54"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="32"/>
+    <row r="32" spans="1:26" thickBot="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2209,14 +2498,24 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="33"/>
+    <row r="33" spans="1:26" ht="14.4">
+      <c r="A33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2237,24 +2536,14 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="45.75" thickBot="1">
-      <c r="A34" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="60">
-        <v>0</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63" t="s">
-        <v>30</v>
-      </c>
+    <row r="34" spans="1:26" ht="14.4">
+      <c r="A34" s="42"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2275,14 +2564,14 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:26" ht="14.4">
+      <c r="A35" s="42"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2303,14 +2592,14 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:26" thickBot="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2331,14 +2620,24 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:26">
+      <c r="A37" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40" t="s">
+        <v>30</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2863,9 +3162,90 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+    </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="60" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="61" spans="1:26" ht="15.75" customHeight="1"/>
@@ -3808,28 +4188,11 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
+  <mergeCells count="25">
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A10:A13"/>
@@ -3839,6 +4202,22 @@
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Test scenario & Test case/TestScenario_OpenMRS.xlsx
+++ b/Test scenario & Test case/TestScenario_OpenMRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GitHub\OpenMRSTesting-SWT301\Test scenario &amp; Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8504FC-36DB-4375-B8EB-09EB7EE7B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06E3B3-AA66-4608-A459-3AB0BA445CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Test  Scenario  Template</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Verify Capture Vitals Functionality</t>
   </si>
   <si>
-    <t>Module is defunct (see image in /images) =&gt; Cannot write test cases</t>
-  </si>
-  <si>
     <t>LI_001</t>
   </si>
   <si>
@@ -145,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +187,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -212,12 +215,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -761,7 +764,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -770,13 +773,35 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -785,6 +810,28 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -794,35 +841,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -923,41 +1012,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,24 +1080,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,14 +1089,59 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1243,15 +1377,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:26" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1296,20 +1430,20 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>10</v>
@@ -1338,10 +1472,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="10"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1366,10 +1500,10 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="10"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -1394,10 +1528,10 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="10"/>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -1422,10 +1556,10 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="50"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="10"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1450,10 +1584,10 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="10"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -1478,10 +1612,10 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="11"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
@@ -1506,20 +1640,20 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
@@ -1544,10 +1678,10 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13"/>
       <c r="F11" s="25"/>
       <c r="G11" s="26"/>
@@ -1572,10 +1706,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="14"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26"/>
@@ -1600,10 +1734,10 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="15"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
@@ -1628,20 +1762,20 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="29"/>
@@ -1666,10 +1800,10 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="14"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -1694,10 +1828,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="13"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
@@ -1722,10 +1856,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="16"/>
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
@@ -1750,20 +1884,20 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="31"/>
@@ -1788,10 +1922,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="54"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="10"/>
       <c r="F19" s="19"/>
       <c r="G19" s="32"/>
@@ -1816,10 +1950,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="54"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="10"/>
       <c r="F20" s="19"/>
       <c r="G20" s="32"/>
@@ -1844,10 +1978,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="11"/>
       <c r="F21" s="21"/>
       <c r="G21" s="33"/>
@@ -1872,20 +2006,20 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="31"/>
@@ -1910,10 +2044,10 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="36"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="38"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="10"/>
       <c r="F23" s="19"/>
       <c r="G23" s="32"/>
@@ -1938,10 +2072,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="36"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="10"/>
       <c r="F24" s="19"/>
       <c r="G24" s="32"/>
@@ -1966,10 +2100,10 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="11"/>
       <c r="F25" s="21"/>
       <c r="G25" s="33"/>
@@ -1994,20 +2128,20 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="31"/>
@@ -2032,10 +2166,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="54"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="10"/>
       <c r="F27" s="19"/>
       <c r="G27" s="32"/>
@@ -2060,10 +2194,10 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="54"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="10"/>
       <c r="F28" s="19"/>
       <c r="G28" s="32"/>
@@ -2088,10 +2222,10 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="11"/>
       <c r="F29" s="21"/>
       <c r="G29" s="33"/>
@@ -2116,20 +2250,20 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="31"/>
@@ -2154,10 +2288,10 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="54"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="10"/>
       <c r="F31" s="19"/>
       <c r="G31" s="32"/>
@@ -2182,10 +2316,10 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="54"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="10"/>
       <c r="F32" s="19"/>
       <c r="G32" s="32"/>
@@ -2210,13 +2344,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2237,24 +2371,22 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="45.75" thickBot="1">
-      <c r="A34" s="58" t="s">
+    <row r="34" spans="1:26">
+      <c r="A34" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="60">
-        <v>0</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63" t="s">
-        <v>30</v>
-      </c>
+      <c r="D34" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2276,13 +2408,13 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2304,13 +2436,13 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="74"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2331,14 +2463,14 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="63"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3809,7 +3941,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
@@ -3822,26 +3975,9 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>